--- a/reference/GuildScrape.xlsx
+++ b/reference/GuildScrape.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="qWFeTkOAcgklREo/gUXflsYFcukVdy2RuY1+7vb6rpw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="azV89E+cp9zTSpSJdnrJUb8xcwOoVi9gEsfgbPyf4wg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="240">
   <si>
     <t>full_name</t>
   </si>
@@ -660,6 +660,9 @@
   </si>
   <si>
     <t>domain</t>
+  </si>
+  <si>
+    <t>Cofounder &amp; CEO</t>
   </si>
   <si>
     <t>Normalized Titles</t>
@@ -790,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -811,6 +814,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +901,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H75" displayName="Table1" name="Table1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H64" displayName="Table1" name="Table1" id="1">
   <tableColumns count="8">
     <tableColumn name="full_name" id="1"/>
     <tableColumn name="title_raw" id="2"/>
@@ -3253,27 +3259,30 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>33</v>
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>33</v>
@@ -3281,58 +3290,55 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>145</v>
+        <v>69</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>173</v>
@@ -3340,13 +3346,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -3354,258 +3360,254 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>20</v>
+        <v>182</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="L10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L11" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="8"/>
+        <v>148</v>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>188</v>
+        <v>56</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>186</v>
+        <v>71</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>33</v>
+        <v>184</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>22</v>
+        <v>137</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>29</v>
+        <v>116</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>48</v>
@@ -3613,27 +3615,30 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>14</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>48</v>
@@ -3641,163 +3646,166 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>168</v>
+        <v>130</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>20</v>
+        <v>175</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N34" s="1"/>
+        <v>173</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="6" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>156</v>
+        <v>101</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="6" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>6</v>
+        <v>166</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>148</v>
@@ -3805,47 +3813,47 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>8</v>
+        <v>122</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>48</v>
@@ -3853,128 +3861,125 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="6" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N45" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>6</v>
+        <v>193</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O46" s="3"/>
+        <v>173</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="6" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="6" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="6" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>48</v>
@@ -3982,27 +3987,27 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="6" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>164</v>
@@ -4010,10 +4015,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="6" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>48</v>
@@ -4021,27 +4032,27 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="6" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>173</v>
+        <v>12</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="6" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>173</v>
@@ -4049,47 +4060,44 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="6" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>173</v>
+        <v>27</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="6" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="6" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>48</v>
@@ -4111,13 +4119,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>173</v>
@@ -4125,30 +4133,33 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="6" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>8</v>
+        <v>95</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>48</v>
@@ -4156,16 +4167,16 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="6" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>48</v>
@@ -4173,190 +4184,44 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="6" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O63" s="3"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="6" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
@@ -5269,17 +5134,6 @@
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
     <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5303,10 +5157,10 @@
   <sheetData>
     <row r="1">
       <c r="D1" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2">
@@ -5314,23 +5168,23 @@
         <v>162</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="D3" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
@@ -5338,7 +5192,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
@@ -5346,83 +5200,83 @@
         <v>111</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
